--- a/LapTrinhJAVA/LongProjects/DeTaiKhoaHocPCCC/STT.xlsx
+++ b/LapTrinhJAVA/LongProjects/DeTaiKhoaHocPCCC/STT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="1105">
   <si>
     <t>STT</t>
   </si>
@@ -3121,13 +3121,223 @@
   </si>
   <si>
     <t>là đám cháy trải rộng, di chuyển bao trùm một số tòa nhà hoặc một vùng rộng vượt qua chướng ngại vật tự nhiên hoặc nhân tạo (ví dụ: một con đường hoặc một dòng nước).</t>
+  </si>
+  <si>
+    <t>Sự cố, tai nạn</t>
+  </si>
+  <si>
+    <t>Cơ sở</t>
+  </si>
+  <si>
+    <t>Thiết bị phòng chống khói, khí độc</t>
+  </si>
+  <si>
+    <t>Phương tiện cứu nạn, cứu hộ chuyên dụng</t>
+  </si>
+  <si>
+    <t>Phương tiện cứu nạn, cứu hộ chuyên dụng hạng nặng</t>
+  </si>
+  <si>
+    <t>Phương tiện cứu nạn, cứu hộ chuyên dụng hạng nhẹ</t>
+  </si>
+  <si>
+    <t>Thảm hoạ thiên tai</t>
+  </si>
+  <si>
+    <t>Thiên tai</t>
+  </si>
+  <si>
+    <t>Động đất</t>
+  </si>
+  <si>
+    <t>Sóng thần</t>
+  </si>
+  <si>
+    <t>Hoá chất</t>
+  </si>
+  <si>
+    <t>Hóa chất nguy hiểm</t>
+  </si>
+  <si>
+    <t>Hoạt động hóa chất</t>
+  </si>
+  <si>
+    <t>Rủi ro hoá chất</t>
+  </si>
+  <si>
+    <t>Sự cố hoá chất</t>
+  </si>
+  <si>
+    <t>Chất phóng xạ</t>
+  </si>
+  <si>
+    <t>Sự cố phóng xạ</t>
+  </si>
+  <si>
+    <t>Công trình ngầm</t>
+  </si>
+  <si>
+    <t>Không gian hạn chế</t>
+  </si>
+  <si>
+    <t>Cứu nạn, cứu hộ</t>
+  </si>
+  <si>
+    <t>Công tác cứu nạn, cứu hộ</t>
+  </si>
+  <si>
+    <t>Thảm họa</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Lực lượng dân phòng</t>
+  </si>
+  <si>
+    <t>Lực lượng phòng cháy và chữa cháy cơ sở</t>
+  </si>
+  <si>
+    <t>Lực lượng phòng cháy và chữa cháy chuyên ngành</t>
+  </si>
+  <si>
+    <t>Phương án cứu nạn, cứu hộ</t>
+  </si>
+  <si>
+    <t>Trính sát hiện trường cứu nạn, cứu hộ</t>
+  </si>
+  <si>
+    <t>Khoanh vùng hiện trường</t>
+  </si>
+  <si>
+    <t>Tổ chức khoanh vùng hiện trường</t>
+  </si>
+  <si>
+    <t>Triển khai lực lượng, phương tiện cứu nạn, cứu hộ</t>
+  </si>
+  <si>
+    <t>Tai nạn giao thông</t>
+  </si>
+  <si>
+    <t>Tai nạn giao thông đường bộ</t>
+  </si>
+  <si>
+    <t>Tai nạn giao thông đường sắt</t>
+  </si>
+  <si>
+    <t>Hoạt động giao thông đường thủy nội địa</t>
+  </si>
+  <si>
+    <t>Tai nạn giao thông đường thủy nội địa</t>
+  </si>
+  <si>
+    <t>Ô tô</t>
+  </si>
+  <si>
+    <t>Ô tô con</t>
+  </si>
+  <si>
+    <t>Ô tô khách (bus)</t>
+  </si>
+  <si>
+    <t>Ô tô tải (ô tô chở hàng)</t>
+  </si>
+  <si>
+    <t>Khung gầm hình chiếc thang</t>
+  </si>
+  <si>
+    <t>Khung gầm hình ống rỗng</t>
+  </si>
+  <si>
+    <t>Khổ đường sắt</t>
+  </si>
+  <si>
+    <t>Phương tiện giao thông đường sắt</t>
+  </si>
+  <si>
+    <t>Tàu</t>
+  </si>
+  <si>
+    <t>Toa xe khách</t>
+  </si>
+  <si>
+    <t>Toa xe hàng</t>
+  </si>
+  <si>
+    <t>Ga đường sắt</t>
+  </si>
+  <si>
+    <t>Tàu thuỷ</t>
+  </si>
+  <si>
+    <t>Tàu khách</t>
+  </si>
+  <si>
+    <t>Tàu hàng</t>
+  </si>
+  <si>
+    <t>Kính ghép nhiều lớp</t>
+  </si>
+  <si>
+    <t>Kính gia nhiệt</t>
+  </si>
+  <si>
+    <t>Khung tàu</t>
+  </si>
+  <si>
+    <t>Vỏ tàu</t>
+  </si>
+  <si>
+    <t>Boong tàu</t>
+  </si>
+  <si>
+    <t>Cố định an toàn cho xe ôtô</t>
+  </si>
+  <si>
+    <t>Máy bay (tàu bay)</t>
+  </si>
+  <si>
+    <t>Thân máy bay</t>
+  </si>
+  <si>
+    <t>Cánh máy bay</t>
+  </si>
+  <si>
+    <t>Đuôi máy bay</t>
+  </si>
+  <si>
+    <t>Động cơ máy bay</t>
+  </si>
+  <si>
+    <t>Chờ tại chỗ</t>
+  </si>
+  <si>
+    <t>Khẩn nguy hoàn toàn</t>
+  </si>
+  <si>
+    <t>Tai nạn máy bay trong cảng hàng không</t>
+  </si>
+  <si>
+    <t>Tai nạn máy bay ngoài cảng hàng không</t>
+  </si>
+  <si>
+    <t>Tình huống khẩn nguy do các hành vi can thiệp bất hợp pháp</t>
+  </si>
+  <si>
+    <t>Tai nạn máy bay</t>
+  </si>
+  <si>
+    <t>Sự cố mặt đất</t>
+  </si>
+  <si>
+    <t>Cháy nổ cơ sở hạ tầng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3345,13 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3157,7 +3374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3170,6 +3387,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3472,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1302"/>
+  <dimension ref="A1:E1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="E422" sqref="E422"/>
+    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
+      <selection activeCell="B1033" sqref="B1033"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18709,752 +18932,1016 @@
       <c r="D1017" s="1"/>
       <c r="E1017" s="1"/>
     </row>
-    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1018" s="3"/>
-      <c r="B1018" s="3"/>
-      <c r="C1018" s="3"/>
-      <c r="D1018" s="3"/>
-      <c r="E1018" s="3"/>
-    </row>
-    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1019" s="3"/>
-      <c r="B1019" s="3"/>
-      <c r="C1019" s="3"/>
-      <c r="D1019" s="3"/>
-      <c r="E1019" s="3"/>
-    </row>
-    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1020" s="3"/>
+    <row r="1018" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1">
+        <v>510</v>
+      </c>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1020" s="3">
+        <v>512</v>
+      </c>
       <c r="B1020" s="3"/>
-      <c r="C1020" s="3"/>
+      <c r="C1020" s="5" t="s">
+        <v>1035</v>
+      </c>
       <c r="D1020" s="3"/>
       <c r="E1020" s="3"/>
     </row>
-    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1021" s="3"/>
-      <c r="B1021" s="3"/>
-      <c r="C1021" s="3"/>
-      <c r="D1021" s="3"/>
-      <c r="E1021" s="3"/>
-    </row>
-    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1022" s="3"/>
+    <row r="1021" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3">
+        <v>514</v>
+      </c>
       <c r="B1022" s="3"/>
-      <c r="C1022" s="3"/>
+      <c r="C1022" s="5" t="s">
+        <v>1036</v>
+      </c>
       <c r="D1022" s="3"/>
       <c r="E1022" s="3"/>
     </row>
-    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1023" s="3"/>
-      <c r="B1023" s="3"/>
-      <c r="C1023" s="3"/>
-      <c r="D1023" s="3"/>
-      <c r="E1023" s="3"/>
-    </row>
-    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1024" s="3"/>
+    <row r="1023" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3">
+        <v>516</v>
+      </c>
       <c r="B1024" s="3"/>
-      <c r="C1024" s="3"/>
+      <c r="C1024" s="5" t="s">
+        <v>1037</v>
+      </c>
       <c r="D1024" s="3"/>
       <c r="E1024" s="3"/>
     </row>
-    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1025" s="3"/>
       <c r="B1025" s="3"/>
-      <c r="C1025" s="3"/>
+      <c r="C1025" s="5"/>
       <c r="D1025" s="3"/>
       <c r="E1025" s="3"/>
     </row>
-    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1026" s="3"/>
+    <row r="1026" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3">
+        <v>517</v>
+      </c>
       <c r="B1026" s="3"/>
-      <c r="C1026" s="3"/>
+      <c r="C1026" s="5" t="s">
+        <v>1038</v>
+      </c>
       <c r="D1026" s="3"/>
       <c r="E1026" s="3"/>
     </row>
-    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1027" s="3"/>
       <c r="B1027" s="3"/>
-      <c r="C1027" s="3"/>
+      <c r="C1027" s="5"/>
       <c r="D1027" s="3"/>
       <c r="E1027" s="3"/>
     </row>
-    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1028" s="3"/>
+    <row r="1028" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3">
+        <v>518</v>
+      </c>
       <c r="B1028" s="3"/>
-      <c r="C1028" s="3"/>
+      <c r="C1028" s="5" t="s">
+        <v>1039</v>
+      </c>
       <c r="D1028" s="3"/>
       <c r="E1028" s="3"/>
     </row>
-    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1029" s="3"/>
       <c r="B1029" s="3"/>
-      <c r="C1029" s="3"/>
+      <c r="C1029" s="5"/>
       <c r="D1029" s="3"/>
       <c r="E1029" s="3"/>
     </row>
-    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1030" s="3"/>
+    <row r="1030" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3">
+        <v>519</v>
+      </c>
       <c r="B1030" s="3"/>
-      <c r="C1030" s="3"/>
+      <c r="C1030" s="5" t="s">
+        <v>1040</v>
+      </c>
       <c r="D1030" s="3"/>
       <c r="E1030" s="3"/>
     </row>
-    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1031" s="3"/>
       <c r="B1031" s="3"/>
-      <c r="C1031" s="3"/>
+      <c r="C1031" s="5"/>
       <c r="D1031" s="3"/>
       <c r="E1031" s="3"/>
     </row>
-    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1032" s="3"/>
+    <row r="1032" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3">
+        <v>520</v>
+      </c>
       <c r="B1032" s="3"/>
-      <c r="C1032" s="3"/>
+      <c r="C1032" s="5" t="s">
+        <v>1041</v>
+      </c>
       <c r="D1032" s="3"/>
       <c r="E1032" s="3"/>
     </row>
-    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1033" s="3"/>
       <c r="B1033" s="3"/>
-      <c r="C1033" s="3"/>
+      <c r="C1033" s="5"/>
       <c r="D1033" s="3"/>
       <c r="E1033" s="3"/>
     </row>
-    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1034" s="3"/>
+    <row r="1034" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3">
+        <v>521</v>
+      </c>
       <c r="B1034" s="3"/>
-      <c r="C1034" s="3"/>
+      <c r="C1034" s="5" t="s">
+        <v>1042</v>
+      </c>
       <c r="D1034" s="3"/>
       <c r="E1034" s="3"/>
     </row>
-    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1035" s="3"/>
+    <row r="1035" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3">
+        <v>522</v>
+      </c>
       <c r="B1035" s="3"/>
-      <c r="C1035" s="3"/>
+      <c r="C1035" s="5" t="s">
+        <v>1043</v>
+      </c>
       <c r="D1035" s="3"/>
       <c r="E1035" s="3"/>
     </row>
-    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1036" s="3"/>
+    <row r="1036" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3">
+        <v>523</v>
+      </c>
       <c r="B1036" s="3"/>
-      <c r="C1036" s="3"/>
+      <c r="C1036" s="5" t="s">
+        <v>1044</v>
+      </c>
       <c r="D1036" s="3"/>
       <c r="E1036" s="3"/>
     </row>
-    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1037" s="3"/>
+    <row r="1037" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3">
+        <v>524</v>
+      </c>
       <c r="B1037" s="3"/>
-      <c r="C1037" s="3"/>
+      <c r="C1037" s="5" t="s">
+        <v>1045</v>
+      </c>
       <c r="D1037" s="3"/>
       <c r="E1037" s="3"/>
     </row>
-    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1038" s="3"/>
+    <row r="1038" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3">
+        <v>525</v>
+      </c>
       <c r="B1038" s="3"/>
-      <c r="C1038" s="3"/>
+      <c r="C1038" s="5" t="s">
+        <v>1046</v>
+      </c>
       <c r="D1038" s="3"/>
       <c r="E1038" s="3"/>
     </row>
-    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1039" s="3"/>
+    <row r="1039" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3">
+        <v>526</v>
+      </c>
       <c r="B1039" s="3"/>
-      <c r="C1039" s="3"/>
+      <c r="C1039" s="5" t="s">
+        <v>1047</v>
+      </c>
       <c r="D1039" s="3"/>
       <c r="E1039" s="3"/>
     </row>
-    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1040" s="3"/>
+    <row r="1040" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3">
+        <v>527</v>
+      </c>
       <c r="B1040" s="3"/>
-      <c r="C1040" s="3"/>
+      <c r="C1040" s="5" t="s">
+        <v>1048</v>
+      </c>
       <c r="D1040" s="3"/>
       <c r="E1040" s="3"/>
     </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1041" s="3"/>
+    <row r="1041" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3">
+        <v>528</v>
+      </c>
       <c r="B1041" s="3"/>
-      <c r="C1041" s="3"/>
+      <c r="C1041" s="5" t="s">
+        <v>1049</v>
+      </c>
       <c r="D1041" s="3"/>
       <c r="E1041" s="3"/>
     </row>
-    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1042" s="3"/>
+    <row r="1042" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3">
+        <v>529</v>
+      </c>
       <c r="B1042" s="3"/>
-      <c r="C1042" s="3"/>
+      <c r="C1042" s="5" t="s">
+        <v>1050</v>
+      </c>
       <c r="D1042" s="3"/>
       <c r="E1042" s="3"/>
     </row>
-    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1043" s="3"/>
+    <row r="1043" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3">
+        <v>530</v>
+      </c>
       <c r="B1043" s="3"/>
-      <c r="C1043" s="3"/>
+      <c r="C1043" s="5" t="s">
+        <v>1051</v>
+      </c>
       <c r="D1043" s="3"/>
       <c r="E1043" s="3"/>
     </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1044" s="3"/>
+    <row r="1044" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3">
+        <v>531</v>
+      </c>
       <c r="B1044" s="3"/>
-      <c r="C1044" s="3"/>
+      <c r="C1044" s="5" t="s">
+        <v>1052</v>
+      </c>
       <c r="D1044" s="3"/>
       <c r="E1044" s="3"/>
     </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1045" s="3"/>
+    <row r="1045" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3">
+        <v>532</v>
+      </c>
       <c r="B1045" s="3"/>
-      <c r="C1045" s="3"/>
+      <c r="C1045" s="5" t="s">
+        <v>1053</v>
+      </c>
       <c r="D1045" s="3"/>
       <c r="E1045" s="3"/>
     </row>
-    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1046" s="3"/>
+    <row r="1046" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3">
+        <v>533</v>
+      </c>
       <c r="B1046" s="3"/>
-      <c r="C1046" s="3"/>
+      <c r="C1046" s="5" t="s">
+        <v>1054</v>
+      </c>
       <c r="D1046" s="3"/>
       <c r="E1046" s="3"/>
     </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1047" s="3"/>
+    <row r="1047" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3">
+        <v>534</v>
+      </c>
       <c r="B1047" s="3"/>
-      <c r="C1047" s="3"/>
+      <c r="C1047" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="D1047" s="3"/>
       <c r="E1047" s="3"/>
     </row>
-    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1048" s="3"/>
+    <row r="1048" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3">
+        <v>535</v>
+      </c>
       <c r="B1048" s="3"/>
-      <c r="C1048" s="3"/>
+      <c r="C1048" s="5" t="s">
+        <v>1056</v>
+      </c>
       <c r="D1048" s="3"/>
       <c r="E1048" s="3"/>
     </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1049" s="3"/>
+    <row r="1049" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3">
+        <v>536</v>
+      </c>
       <c r="B1049" s="3"/>
-      <c r="C1049" s="3"/>
+      <c r="C1049" s="5" t="s">
+        <v>1057</v>
+      </c>
       <c r="D1049" s="3"/>
       <c r="E1049" s="3"/>
     </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1050" s="3"/>
+    <row r="1050" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3">
+        <v>537</v>
+      </c>
       <c r="B1050" s="3"/>
-      <c r="C1050" s="3"/>
+      <c r="C1050" s="5" t="s">
+        <v>1058</v>
+      </c>
       <c r="D1050" s="3"/>
       <c r="E1050" s="3"/>
     </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1051" s="3"/>
+    <row r="1051" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3">
+        <v>538</v>
+      </c>
       <c r="B1051" s="3"/>
-      <c r="C1051" s="3"/>
+      <c r="C1051" s="5" t="s">
+        <v>1059</v>
+      </c>
       <c r="D1051" s="3"/>
       <c r="E1051" s="3"/>
     </row>
-    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1052" s="3"/>
+    <row r="1052" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3">
+        <v>539</v>
+      </c>
       <c r="B1052" s="3"/>
-      <c r="C1052" s="3"/>
+      <c r="C1052" s="5" t="s">
+        <v>1060</v>
+      </c>
       <c r="D1052" s="3"/>
       <c r="E1052" s="3"/>
     </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1053" s="3"/>
+    <row r="1053" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3">
+        <v>540</v>
+      </c>
       <c r="B1053" s="3"/>
-      <c r="C1053" s="3"/>
+      <c r="C1053" s="5" t="s">
+        <v>1061</v>
+      </c>
       <c r="D1053" s="3"/>
       <c r="E1053" s="3"/>
     </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1054" s="3"/>
+    <row r="1054" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3">
+        <v>541</v>
+      </c>
       <c r="B1054" s="3"/>
-      <c r="C1054" s="3"/>
+      <c r="C1054" s="5" t="s">
+        <v>1062</v>
+      </c>
       <c r="D1054" s="3"/>
       <c r="E1054" s="3"/>
     </row>
-    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1055" s="3"/>
+    <row r="1055" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3">
+        <v>542</v>
+      </c>
       <c r="B1055" s="3"/>
-      <c r="C1055" s="3"/>
+      <c r="C1055" s="5" t="s">
+        <v>1063</v>
+      </c>
       <c r="D1055" s="3"/>
       <c r="E1055" s="3"/>
     </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1056" s="3"/>
+    <row r="1056" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3">
+        <v>543</v>
+      </c>
       <c r="B1056" s="3"/>
-      <c r="C1056" s="3"/>
+      <c r="C1056" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="D1056" s="3"/>
       <c r="E1056" s="3"/>
     </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1057" s="3"/>
+    <row r="1057" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3">
+        <v>544</v>
+      </c>
       <c r="B1057" s="3"/>
-      <c r="C1057" s="3"/>
+      <c r="C1057" s="5" t="s">
+        <v>1065</v>
+      </c>
       <c r="D1057" s="3"/>
       <c r="E1057" s="3"/>
     </row>
-    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1058" s="3"/>
+    <row r="1058" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3">
+        <v>545</v>
+      </c>
       <c r="B1058" s="3"/>
-      <c r="C1058" s="3"/>
+      <c r="C1058" s="5" t="s">
+        <v>1066</v>
+      </c>
       <c r="D1058" s="3"/>
       <c r="E1058" s="3"/>
     </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1059" s="3"/>
+    <row r="1059" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3">
+        <v>546</v>
+      </c>
       <c r="B1059" s="3"/>
-      <c r="C1059" s="3"/>
+      <c r="C1059" s="5" t="s">
+        <v>1067</v>
+      </c>
       <c r="D1059" s="3"/>
       <c r="E1059" s="3"/>
     </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1060" s="3"/>
+    <row r="1060" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3">
+        <v>547</v>
+      </c>
       <c r="B1060" s="3"/>
-      <c r="C1060" s="3"/>
+      <c r="C1060" s="5" t="s">
+        <v>1068</v>
+      </c>
       <c r="D1060" s="3"/>
       <c r="E1060" s="3"/>
     </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1061" s="3"/>
+    <row r="1061" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3">
+        <v>548</v>
+      </c>
       <c r="B1061" s="3"/>
-      <c r="C1061" s="3"/>
+      <c r="C1061" s="5" t="s">
+        <v>1069</v>
+      </c>
       <c r="D1061" s="3"/>
       <c r="E1061" s="3"/>
     </row>
-    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1062" s="3"/>
+    <row r="1062" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3">
+        <v>549</v>
+      </c>
       <c r="B1062" s="3"/>
-      <c r="C1062" s="3"/>
+      <c r="C1062" s="5" t="s">
+        <v>1070</v>
+      </c>
       <c r="D1062" s="3"/>
       <c r="E1062" s="3"/>
     </row>
-    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1063" s="3"/>
+    <row r="1063" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3">
+        <v>550</v>
+      </c>
       <c r="B1063" s="3"/>
-      <c r="C1063" s="3"/>
+      <c r="C1063" s="5" t="s">
+        <v>1071</v>
+      </c>
       <c r="D1063" s="3"/>
       <c r="E1063" s="3"/>
     </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1064" s="3"/>
+    <row r="1064" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3">
+        <v>551</v>
+      </c>
       <c r="B1064" s="3"/>
-      <c r="C1064" s="3"/>
+      <c r="C1064" s="5" t="s">
+        <v>1072</v>
+      </c>
       <c r="D1064" s="3"/>
       <c r="E1064" s="3"/>
     </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1065" s="3"/>
+    <row r="1065" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3">
+        <v>552</v>
+      </c>
       <c r="B1065" s="3"/>
-      <c r="C1065" s="3"/>
+      <c r="C1065" s="5" t="s">
+        <v>1073</v>
+      </c>
       <c r="D1065" s="3"/>
       <c r="E1065" s="3"/>
     </row>
-    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1066" s="3"/>
+    <row r="1066" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3">
+        <v>553</v>
+      </c>
       <c r="B1066" s="3"/>
-      <c r="C1066" s="3"/>
+      <c r="C1066" s="5" t="s">
+        <v>1074</v>
+      </c>
       <c r="D1066" s="3"/>
       <c r="E1066" s="3"/>
     </row>
-    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1067" s="3"/>
+    <row r="1067" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3">
+        <v>554</v>
+      </c>
       <c r="B1067" s="3"/>
-      <c r="C1067" s="3"/>
+      <c r="C1067" s="5" t="s">
+        <v>1075</v>
+      </c>
       <c r="D1067" s="3"/>
       <c r="E1067" s="3"/>
     </row>
-    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1068" s="3"/>
+    <row r="1068" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3">
+        <v>555</v>
+      </c>
       <c r="B1068" s="3"/>
-      <c r="C1068" s="3"/>
+      <c r="C1068" s="5" t="s">
+        <v>1076</v>
+      </c>
       <c r="D1068" s="3"/>
       <c r="E1068" s="3"/>
     </row>
-    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1069" s="3"/>
+    <row r="1069" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3">
+        <v>556</v>
+      </c>
       <c r="B1069" s="3"/>
-      <c r="C1069" s="3"/>
+      <c r="C1069" s="5" t="s">
+        <v>1077</v>
+      </c>
       <c r="D1069" s="3"/>
       <c r="E1069" s="3"/>
     </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1070" s="3"/>
+    <row r="1070" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3">
+        <v>557</v>
+      </c>
       <c r="B1070" s="3"/>
-      <c r="C1070" s="3"/>
+      <c r="C1070" s="5" t="s">
+        <v>1078</v>
+      </c>
       <c r="D1070" s="3"/>
       <c r="E1070" s="3"/>
     </row>
-    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1071" s="3"/>
+    <row r="1071" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3">
+        <v>558</v>
+      </c>
       <c r="B1071" s="3"/>
-      <c r="C1071" s="3"/>
+      <c r="C1071" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="D1071" s="3"/>
       <c r="E1071" s="3"/>
     </row>
-    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1072" s="3"/>
+    <row r="1072" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3">
+        <v>559</v>
+      </c>
       <c r="B1072" s="3"/>
-      <c r="C1072" s="3"/>
+      <c r="C1072" s="5" t="s">
+        <v>1080</v>
+      </c>
       <c r="D1072" s="3"/>
       <c r="E1072" s="3"/>
     </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1073" s="3"/>
+    <row r="1073" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1073" s="3">
+        <v>560</v>
+      </c>
       <c r="B1073" s="3"/>
-      <c r="C1073" s="3"/>
+      <c r="C1073" s="5" t="s">
+        <v>1081</v>
+      </c>
       <c r="D1073" s="3"/>
       <c r="E1073" s="3"/>
     </row>
-    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1074" s="3"/>
+    <row r="1074" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1074" s="3">
+        <v>561</v>
+      </c>
       <c r="B1074" s="3"/>
-      <c r="C1074" s="3"/>
+      <c r="C1074" s="5" t="s">
+        <v>1082</v>
+      </c>
       <c r="D1074" s="3"/>
       <c r="E1074" s="3"/>
     </row>
-    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1075" s="3"/>
+    <row r="1075" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1075" s="3">
+        <v>562</v>
+      </c>
       <c r="B1075" s="3"/>
-      <c r="C1075" s="3"/>
+      <c r="C1075" s="5" t="s">
+        <v>1083</v>
+      </c>
       <c r="D1075" s="3"/>
       <c r="E1075" s="3"/>
     </row>
-    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1076" s="3"/>
+    <row r="1076" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1076" s="3">
+        <v>563</v>
+      </c>
       <c r="B1076" s="3"/>
-      <c r="C1076" s="3"/>
+      <c r="C1076" s="5" t="s">
+        <v>1084</v>
+      </c>
       <c r="D1076" s="3"/>
       <c r="E1076" s="3"/>
     </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1077" s="3"/>
+    <row r="1077" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1077" s="3">
+        <v>564</v>
+      </c>
       <c r="B1077" s="3"/>
-      <c r="C1077" s="3"/>
+      <c r="C1077" s="5" t="s">
+        <v>1085</v>
+      </c>
       <c r="D1077" s="3"/>
       <c r="E1077" s="3"/>
     </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1078" s="3"/>
+    <row r="1078" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1078" s="3">
+        <v>565</v>
+      </c>
       <c r="B1078" s="3"/>
-      <c r="C1078" s="3"/>
+      <c r="C1078" s="5" t="s">
+        <v>1086</v>
+      </c>
       <c r="D1078" s="3"/>
       <c r="E1078" s="3"/>
     </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1079" s="3"/>
+    <row r="1079" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1079" s="3">
+        <v>566</v>
+      </c>
       <c r="B1079" s="3"/>
-      <c r="C1079" s="3"/>
+      <c r="C1079" s="5" t="s">
+        <v>1087</v>
+      </c>
       <c r="D1079" s="3"/>
       <c r="E1079" s="3"/>
     </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1080" s="3"/>
+    <row r="1080" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1080" s="3">
+        <v>567</v>
+      </c>
       <c r="B1080" s="3"/>
-      <c r="C1080" s="3"/>
+      <c r="C1080" s="5" t="s">
+        <v>1088</v>
+      </c>
       <c r="D1080" s="3"/>
       <c r="E1080" s="3"/>
     </row>
-    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1081" s="3"/>
+    <row r="1081" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1081" s="3">
+        <v>568</v>
+      </c>
       <c r="B1081" s="3"/>
-      <c r="C1081" s="3"/>
+      <c r="C1081" s="5" t="s">
+        <v>1089</v>
+      </c>
       <c r="D1081" s="3"/>
       <c r="E1081" s="3"/>
     </row>
-    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1082" s="3"/>
+    <row r="1082" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1082" s="3">
+        <v>569</v>
+      </c>
       <c r="B1082" s="3"/>
-      <c r="C1082" s="3"/>
+      <c r="C1082" s="5" t="s">
+        <v>1090</v>
+      </c>
       <c r="D1082" s="3"/>
       <c r="E1082" s="3"/>
     </row>
-    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1083" s="3"/>
+    <row r="1083" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1083" s="3">
+        <v>570</v>
+      </c>
       <c r="B1083" s="3"/>
-      <c r="C1083" s="3"/>
+      <c r="C1083" s="5" t="s">
+        <v>1091</v>
+      </c>
       <c r="D1083" s="3"/>
       <c r="E1083" s="3"/>
     </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1084" s="3"/>
+    <row r="1084" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1084" s="3">
+        <v>571</v>
+      </c>
       <c r="B1084" s="3"/>
-      <c r="C1084" s="3"/>
+      <c r="C1084" s="5" t="s">
+        <v>1092</v>
+      </c>
       <c r="D1084" s="3"/>
       <c r="E1084" s="3"/>
     </row>
-    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1085" s="3"/>
+    <row r="1085" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1085" s="3">
+        <v>572</v>
+      </c>
       <c r="B1085" s="3"/>
-      <c r="C1085" s="3"/>
+      <c r="C1085" s="5" t="s">
+        <v>1093</v>
+      </c>
       <c r="D1085" s="3"/>
       <c r="E1085" s="3"/>
     </row>
-    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1086" s="3"/>
+    <row r="1086" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1086" s="3">
+        <v>573</v>
+      </c>
       <c r="B1086" s="3"/>
-      <c r="C1086" s="3"/>
+      <c r="C1086" s="5" t="s">
+        <v>1094</v>
+      </c>
       <c r="D1086" s="3"/>
       <c r="E1086" s="3"/>
     </row>
-    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1087" s="3"/>
       <c r="B1087" s="3"/>
-      <c r="C1087" s="3"/>
+      <c r="C1087" s="5"/>
       <c r="D1087" s="3"/>
       <c r="E1087" s="3"/>
     </row>
-    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1088" s="3"/>
       <c r="B1088" s="3"/>
-      <c r="C1088" s="3"/>
+      <c r="C1088" s="5" t="s">
+        <v>1095</v>
+      </c>
       <c r="D1088" s="3"/>
       <c r="E1088" s="3"/>
     </row>
-    <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1089" s="3"/>
       <c r="B1089" s="3"/>
-      <c r="C1089" s="3"/>
+      <c r="C1089" s="5" t="s">
+        <v>1096</v>
+      </c>
       <c r="D1089" s="3"/>
       <c r="E1089" s="3"/>
     </row>
-    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1090" s="3"/>
       <c r="B1090" s="3"/>
-      <c r="C1090" s="3"/>
+      <c r="C1090" s="5" t="s">
+        <v>1097</v>
+      </c>
       <c r="D1090" s="3"/>
       <c r="E1090" s="3"/>
     </row>
-    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1091" s="3"/>
       <c r="B1091" s="3"/>
-      <c r="C1091" s="3"/>
+      <c r="C1091" s="5" t="s">
+        <v>1098</v>
+      </c>
       <c r="D1091" s="3"/>
       <c r="E1091" s="3"/>
     </row>
-    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1092" s="3"/>
       <c r="B1092" s="3"/>
-      <c r="C1092" s="3"/>
+      <c r="C1092" s="5" t="s">
+        <v>1099</v>
+      </c>
       <c r="D1092" s="3"/>
       <c r="E1092" s="3"/>
     </row>
-    <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1093" s="3"/>
       <c r="B1093" s="3"/>
-      <c r="C1093" s="3"/>
+      <c r="C1093" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="D1093" s="3"/>
       <c r="E1093" s="3"/>
     </row>
-    <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A1094" s="3"/>
       <c r="B1094" s="3"/>
-      <c r="C1094" s="3"/>
+      <c r="C1094" s="5" t="s">
+        <v>1101</v>
+      </c>
       <c r="D1094" s="3"/>
       <c r="E1094" s="3"/>
     </row>
-    <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1095" s="3"/>
       <c r="B1095" s="3"/>
-      <c r="C1095" s="3"/>
+      <c r="C1095" s="5" t="s">
+        <v>1102</v>
+      </c>
       <c r="D1095" s="3"/>
       <c r="E1095" s="3"/>
     </row>
-    <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1096" s="3"/>
       <c r="B1096" s="3"/>
-      <c r="C1096" s="3"/>
+      <c r="C1096" s="5" t="s">
+        <v>1103</v>
+      </c>
       <c r="D1096" s="3"/>
       <c r="E1096" s="3"/>
     </row>
-    <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1097" s="3"/>
       <c r="B1097" s="3"/>
-      <c r="C1097" s="3"/>
+      <c r="C1097" s="5" t="s">
+        <v>1104</v>
+      </c>
       <c r="D1097" s="3"/>
       <c r="E1097" s="3"/>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1098" s="3"/>
       <c r="B1098" s="3"/>
-      <c r="C1098" s="3"/>
+      <c r="C1098" s="6"/>
       <c r="D1098" s="3"/>
       <c r="E1098" s="3"/>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1099" s="3"/>
       <c r="B1099" s="3"/>
-      <c r="C1099" s="3"/>
+      <c r="C1099" s="6"/>
       <c r="D1099" s="3"/>
       <c r="E1099" s="3"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1100" s="3"/>
       <c r="B1100" s="3"/>
-      <c r="C1100" s="3"/>
+      <c r="C1100" s="6"/>
       <c r="D1100" s="3"/>
       <c r="E1100" s="3"/>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1101" s="3"/>
       <c r="B1101" s="3"/>
-      <c r="C1101" s="3"/>
+      <c r="C1101" s="6"/>
       <c r="D1101" s="3"/>
       <c r="E1101" s="3"/>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1102" s="3"/>
       <c r="B1102" s="3"/>
-      <c r="C1102" s="3"/>
+      <c r="C1102" s="6"/>
       <c r="D1102" s="3"/>
       <c r="E1102" s="3"/>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1103" s="3"/>
       <c r="B1103" s="3"/>
-      <c r="C1103" s="3"/>
+      <c r="C1103" s="6"/>
       <c r="D1103" s="3"/>
       <c r="E1103" s="3"/>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1104" s="3"/>
       <c r="B1104" s="3"/>
-      <c r="C1104" s="3"/>
+      <c r="C1104" s="6"/>
       <c r="D1104" s="3"/>
       <c r="E1104" s="3"/>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1105" s="3"/>
       <c r="B1105" s="3"/>
-      <c r="C1105" s="3"/>
+      <c r="C1105" s="6"/>
       <c r="D1105" s="3"/>
       <c r="E1105" s="3"/>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1106" s="3"/>
       <c r="B1106" s="3"/>
-      <c r="C1106" s="3"/>
+      <c r="C1106" s="6"/>
       <c r="D1106" s="3"/>
       <c r="E1106" s="3"/>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1107" s="3"/>
       <c r="B1107" s="3"/>
-      <c r="C1107" s="3"/>
+      <c r="C1107" s="6"/>
       <c r="D1107" s="3"/>
       <c r="E1107" s="3"/>
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1108" s="3"/>
       <c r="B1108" s="3"/>
-      <c r="C1108" s="3"/>
+      <c r="C1108" s="6"/>
       <c r="D1108" s="3"/>
       <c r="E1108" s="3"/>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1109" s="3"/>
       <c r="B1109" s="3"/>
-      <c r="C1109" s="3"/>
+      <c r="C1109" s="6"/>
       <c r="D1109" s="3"/>
       <c r="E1109" s="3"/>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1110" s="3"/>
       <c r="B1110" s="3"/>
-      <c r="C1110" s="3"/>
+      <c r="C1110" s="6"/>
       <c r="D1110" s="3"/>
       <c r="E1110" s="3"/>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1111" s="3"/>
       <c r="B1111" s="3"/>
-      <c r="C1111" s="3"/>
+      <c r="C1111" s="6"/>
       <c r="D1111" s="3"/>
       <c r="E1111" s="3"/>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1112" s="3"/>
       <c r="B1112" s="3"/>
-      <c r="C1112" s="3"/>
+      <c r="C1112" s="6"/>
       <c r="D1112" s="3"/>
       <c r="E1112" s="3"/>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1113" s="3"/>
       <c r="B1113" s="3"/>
-      <c r="C1113" s="3"/>
+      <c r="C1113" s="6"/>
       <c r="D1113" s="3"/>
       <c r="E1113" s="3"/>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1114" s="3"/>
       <c r="B1114" s="3"/>
-      <c r="C1114" s="3"/>
+      <c r="C1114" s="6"/>
       <c r="D1114" s="3"/>
       <c r="E1114" s="3"/>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1115" s="3"/>
       <c r="B1115" s="3"/>
-      <c r="C1115" s="3"/>
+      <c r="C1115" s="6"/>
       <c r="D1115" s="3"/>
       <c r="E1115" s="3"/>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1116" s="3"/>
       <c r="B1116" s="3"/>
-      <c r="C1116" s="3"/>
+      <c r="C1116" s="6"/>
       <c r="D1116" s="3"/>
       <c r="E1116" s="3"/>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1117" s="3"/>
       <c r="B1117" s="3"/>
-      <c r="C1117" s="3"/>
+      <c r="C1117" s="6"/>
       <c r="D1117" s="3"/>
       <c r="E1117" s="3"/>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1118" s="3"/>
       <c r="B1118" s="3"/>
-      <c r="C1118" s="3"/>
+      <c r="C1118" s="6"/>
       <c r="D1118" s="3"/>
       <c r="E1118" s="3"/>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1119" s="3"/>
       <c r="B1119" s="3"/>
-      <c r="C1119" s="3"/>
+      <c r="C1119" s="6"/>
       <c r="D1119" s="3"/>
       <c r="E1119" s="3"/>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1120" s="3"/>
       <c r="B1120" s="3"/>
-      <c r="C1120" s="3"/>
+      <c r="C1120" s="6"/>
       <c r="D1120" s="3"/>
       <c r="E1120" s="3"/>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1121" s="3"/>
       <c r="B1121" s="3"/>
-      <c r="C1121" s="3"/>
+      <c r="C1121" s="6"/>
       <c r="D1121" s="3"/>
       <c r="E1121" s="3"/>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1122" s="3"/>
       <c r="B1122" s="3"/>
-      <c r="C1122" s="3"/>
+      <c r="C1122" s="6"/>
       <c r="D1122" s="3"/>
       <c r="E1122" s="3"/>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1123" s="3"/>
       <c r="B1123" s="3"/>
-      <c r="C1123" s="3"/>
+      <c r="C1123" s="6"/>
       <c r="D1123" s="3"/>
       <c r="E1123" s="3"/>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1124" s="3"/>
       <c r="B1124" s="3"/>
-      <c r="C1124" s="3"/>
+      <c r="C1124" s="6"/>
       <c r="D1124" s="3"/>
       <c r="E1124" s="3"/>
     </row>
@@ -20642,46 +21129,46 @@
       <c r="E1293" s="3"/>
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1294" s="2"/>
-      <c r="B1294" s="2"/>
-      <c r="C1294" s="2"/>
-      <c r="D1294" s="2"/>
-      <c r="E1294" s="2"/>
+      <c r="A1294" s="3"/>
+      <c r="B1294" s="3"/>
+      <c r="C1294" s="3"/>
+      <c r="D1294" s="3"/>
+      <c r="E1294" s="3"/>
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1295" s="2"/>
-      <c r="B1295" s="2"/>
-      <c r="C1295" s="2"/>
-      <c r="D1295" s="2"/>
-      <c r="E1295" s="2"/>
+      <c r="A1295" s="3"/>
+      <c r="B1295" s="3"/>
+      <c r="C1295" s="3"/>
+      <c r="D1295" s="3"/>
+      <c r="E1295" s="3"/>
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1296" s="2"/>
-      <c r="B1296" s="2"/>
-      <c r="C1296" s="2"/>
-      <c r="D1296" s="2"/>
-      <c r="E1296" s="2"/>
+      <c r="A1296" s="3"/>
+      <c r="B1296" s="3"/>
+      <c r="C1296" s="3"/>
+      <c r="D1296" s="3"/>
+      <c r="E1296" s="3"/>
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1297" s="2"/>
-      <c r="B1297" s="2"/>
-      <c r="C1297" s="2"/>
-      <c r="D1297" s="2"/>
-      <c r="E1297" s="2"/>
+      <c r="A1297" s="3"/>
+      <c r="B1297" s="3"/>
+      <c r="C1297" s="3"/>
+      <c r="D1297" s="3"/>
+      <c r="E1297" s="3"/>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1298" s="2"/>
-      <c r="B1298" s="2"/>
-      <c r="C1298" s="2"/>
-      <c r="D1298" s="2"/>
-      <c r="E1298" s="2"/>
+      <c r="A1298" s="3"/>
+      <c r="B1298" s="3"/>
+      <c r="C1298" s="3"/>
+      <c r="D1298" s="3"/>
+      <c r="E1298" s="3"/>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1299" s="2"/>
-      <c r="B1299" s="2"/>
-      <c r="C1299" s="2"/>
-      <c r="D1299" s="2"/>
-      <c r="E1299" s="2"/>
+      <c r="A1299" s="3"/>
+      <c r="B1299" s="3"/>
+      <c r="C1299" s="3"/>
+      <c r="D1299" s="3"/>
+      <c r="E1299" s="3"/>
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1300" s="2"/>
@@ -20703,6 +21190,48 @@
       <c r="C1302" s="2"/>
       <c r="D1302" s="2"/>
       <c r="E1302" s="2"/>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1303" s="2"/>
+      <c r="B1303" s="2"/>
+      <c r="C1303" s="2"/>
+      <c r="D1303" s="2"/>
+      <c r="E1303" s="2"/>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1304" s="2"/>
+      <c r="B1304" s="2"/>
+      <c r="C1304" s="2"/>
+      <c r="D1304" s="2"/>
+      <c r="E1304" s="2"/>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1305" s="2"/>
+      <c r="B1305" s="2"/>
+      <c r="C1305" s="2"/>
+      <c r="D1305" s="2"/>
+      <c r="E1305" s="2"/>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1306" s="2"/>
+      <c r="B1306" s="2"/>
+      <c r="C1306" s="2"/>
+      <c r="D1306" s="2"/>
+      <c r="E1306" s="2"/>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1307" s="2"/>
+      <c r="B1307" s="2"/>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+      <c r="E1307" s="2"/>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1308" s="2"/>
+      <c r="B1308" s="2"/>
+      <c r="C1308" s="2"/>
+      <c r="D1308" s="2"/>
+      <c r="E1308" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
